--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D413E-4607-4D14-866C-E3B1D08CFD47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC490FF-F383-4DCC-897D-C877F7F33C7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inicial_H" sheetId="6" r:id="rId1"/>
@@ -15,10 +15,16 @@
     <sheet name="dec_H" sheetId="13" r:id="rId5"/>
     <sheet name="dec_M" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,14 +391,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3BDBC-AAC9-49B1-855A-0D97D040112E}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="32" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="32" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
@@ -498,28 +508,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>13218</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>26437</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>46264</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>26437</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>13218</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3965</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1322</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1322</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -596,28 +606,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>15217</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>30435</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>53261</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>30435</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>15217</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4565</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -694,28 +704,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>15218</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>30437</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>53264</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>30437</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15218</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4566</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -792,28 +802,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>15383</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>30766</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>53840</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30766</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>15383</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4615</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -890,28 +900,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15394</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>30787</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>53877</v>
       </c>
       <c r="E6">
-        <v>800</v>
+        <v>30787</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15394</v>
       </c>
       <c r="G6">
-        <v>2000</v>
+        <v>4618</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1539</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1539</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -988,28 +998,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14613</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>29226</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>51146</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>29226</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>14613</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4384</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1086,28 +1096,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>15068</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>30137</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>52739</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>30137</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>15068</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4521</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1507</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1507</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1184,28 +1194,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15557</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>31115</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>54451</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>31115</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>15557</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4667</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1282,28 +1292,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>16155</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>32309</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>56541</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>32309</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>16155</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4846</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1380,28 +1390,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15996</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>31991</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>55985</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>31991</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>15996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4799</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1478,28 +1488,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>17279</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>34559</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>60478</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>34559</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>17279</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5184</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1576,28 +1586,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>16047</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>32094</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>56164</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>32094</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>16047</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4814</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1674,28 +1684,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>14590</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>29179</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>51064</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>29179</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>14590</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4377</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1772,28 +1782,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>15207</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>30415</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>53226</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>30415</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>15207</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4562</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1870,28 +1880,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>15175</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>30349</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>53111</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>30349</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>15175</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4552</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1968,28 +1978,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>14721</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>29442</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>51524</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>29442</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>14721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4416</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2066,28 +2076,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>14463</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>28925</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>50619</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>28925</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>14463</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4339</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2164,28 +2174,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>14698</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>29396</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>51443</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>29396</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>14698</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4409</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2262,28 +2272,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>14269</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>28538</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>49941</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>28538</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>14269</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4281</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2360,28 +2370,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>13204</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>26409</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>46215</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>26409</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>13204</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3961</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2458,28 +2468,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>13391</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>26782</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>46868</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>26782</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>13391</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4017</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2556,28 +2566,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>12433</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>24865</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>43514</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>24865</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>12433</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2654,28 +2664,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>13182</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>26364</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>46137</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>26364</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>13182</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3955</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2752,28 +2762,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>12655</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25311</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>44294</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>25311</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>12655</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3797</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2850,28 +2860,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>12253</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>24507</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>42887</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>24507</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>12253</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2948,28 +2958,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>12405</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>24810</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>43417</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>24810</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>12405</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3721</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3046,28 +3056,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>11662</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>23324</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>40817</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>23324</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>11662</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3499</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3144,28 +3154,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>23040</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>40321</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>23040</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3456</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3242,28 +3252,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>11784</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>23569</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>41245</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>23569</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>11784</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3535</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3340,28 +3350,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>11323</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>22647</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>39632</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>22647</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>11323</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3397</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3438,28 +3448,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>11728</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>23456</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>41048</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>23456</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>11728</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3518</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3536,28 +3546,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>10353</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>20705</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>36234</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>20705</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>10353</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3106</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3634,28 +3644,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>10295</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>20591</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>36034</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>20591</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10295</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3089</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3732,28 +3742,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>10162</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>20323</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>35566</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>20323</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>10162</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3048</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3830,28 +3840,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>9552</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>19103</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>33430</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>19103</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>9552</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2865</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3928,28 +3938,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>9416</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>18832</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>32957</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>18832</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>9416</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4026,28 +4036,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>9230</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>18460</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>32305</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>18460</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>9230</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2769</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4124,28 +4134,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>17953</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>31418</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>17953</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4222,28 +4232,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>9213</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>18425</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>32244</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>18425</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>9213</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2764</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4320,28 +4330,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>8785</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>17569</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>30746</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>17569</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>8785</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2635</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4418,28 +4428,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>17999</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>31498</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>17999</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4516,28 +4526,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>7735</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>15470</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>27072</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>15470</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>7735</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2320</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4614,28 +4624,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>8152</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>16304</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>28532</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>16304</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>8152</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2446</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -4712,28 +4722,28 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7536</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>15072</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>26376</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>15072</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>7536</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2261</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4810,28 +4820,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>7501</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>15002</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>26254</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>15002</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>7501</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -4908,28 +4918,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>7801</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>15602</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>27304</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>15602</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>7801</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -5006,28 +5016,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>7515</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>15029</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>26301</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>15029</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>7515</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -5104,28 +5114,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7414</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>14828</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>25948</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>14828</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>7414</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2224</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5202,28 +5212,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>7276</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>14552</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>25465</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>14552</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>7276</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>2183</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5300,28 +5310,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>6639</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>13279</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>23238</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>13279</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>6639</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1992</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -5398,28 +5408,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>7023</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>14047</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>24582</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>14047</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>7023</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2107</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5496,28 +5506,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>5857</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>11715</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>20501</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>11715</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>5857</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1757</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5594,28 +5604,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>5752</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>11504</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>20133</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>11504</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5752</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1726</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5692,28 +5702,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>5756</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>11511</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>20145</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>11511</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>5756</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1727</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5790,28 +5800,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>5484</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>10969</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>19195</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>10969</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>5484</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -5888,28 +5898,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>11339</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>19843</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>11339</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1701</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5986,28 +5996,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>5398</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>10796</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>18893</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>10796</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>5398</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1619</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -6084,28 +6094,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>5046</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>10092</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>17661</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10092</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>5046</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1514</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -6182,28 +6192,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4733</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>9466</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>16566</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>9466</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4733</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -6280,28 +6290,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4464</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>8928</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>15625</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>8928</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>4464</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -6378,28 +6388,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>4678</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>9357</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>16374</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>9357</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>4678</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -6476,28 +6486,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3824</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>7649</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>13385</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>7649</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>3824</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -6574,28 +6584,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>3778</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>7556</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>13223</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>7556</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3778</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1133</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -6672,28 +6682,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -6770,28 +6780,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3561</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>7121</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>12462</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>7121</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>3561</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -6868,28 +6878,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3751</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>7503</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>13130</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>7503</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>3751</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -6966,28 +6976,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3268</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>6537</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>11439</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>6537</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3268</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -7064,28 +7074,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6007</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>10513</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>6007</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -7162,28 +7172,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2934</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>5867</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>10267</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>5867</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2934</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -7260,28 +7270,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2724</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>9533</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2724</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -7358,28 +7368,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>3226</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>6452</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>11291</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>6452</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>3226</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -7456,28 +7466,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>2097</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>4194</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>7339</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>4194</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2097</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -7554,28 +7564,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2220</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>4439</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>7769</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>4439</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2220</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -7652,28 +7662,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2064</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>4129</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>7225</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>4129</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2064</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -7750,28 +7760,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>4027</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>7047</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>4027</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -7848,28 +7858,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>4014</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>7025</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>4014</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -7946,28 +7956,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>3244</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>5678</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3244</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -8044,28 +8054,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1532</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>3063</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>5361</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>3063</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1532</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -8142,28 +8152,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>2953</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>5168</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>2953</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -8240,28 +8250,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>2446</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2446</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -8338,28 +8348,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>5272</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -8436,28 +8446,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2149</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>3761</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2149</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -8534,28 +8544,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -8632,28 +8642,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1702</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2979</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1702</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -8730,28 +8740,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>2879</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -8828,28 +8838,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>2706</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -8926,28 +8936,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -9024,28 +9034,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -9122,28 +9132,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1599</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -9220,28 +9230,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -9318,28 +9328,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -9416,28 +9426,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -9514,28 +9524,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -9612,28 +9622,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -9710,28 +9720,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -9808,28 +9818,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -9906,28 +9916,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -10004,28 +10014,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -10102,28 +10112,28 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -10200,28 +10210,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -10298,28 +10308,28 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -10400,14 +10410,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3891B7-828C-4C9D-A5A3-A41D0B8931D1}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="5.109375" customWidth="1"/>
+    <col min="2" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="32" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
@@ -10513,28 +10524,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>12777</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>25555</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>44721</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25555</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>12777</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3833</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -10611,28 +10622,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>14567</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>29135</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>50986</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>29135</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>14567</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4370</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -10709,28 +10720,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>14772</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>29544</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>51702</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>29544</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>14772</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4432</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -10807,28 +10818,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14820</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>29640</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>51871</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>29640</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>14820</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4446</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1482</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1482</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -10905,28 +10916,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>14860</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>29720</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>52010</v>
       </c>
       <c r="E6">
-        <v>800</v>
+        <v>29720</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14860</v>
       </c>
       <c r="G6">
-        <v>2000</v>
+        <v>4458</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1486</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1486</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -11003,28 +11014,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14162</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>28324</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>49567</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>28324</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>14162</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4249</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1416</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1416</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -11101,28 +11112,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14635</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>29270</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>51222</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>29270</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>14635</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4390</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -11199,28 +11210,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15117</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>30234</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>52909</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>30234</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>15117</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4535</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -11297,28 +11308,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15749</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>31498</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>55122</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>31498</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>15749</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4725</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -11395,28 +11406,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15629</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>31257</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>54700</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>31257</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>15629</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4689</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11493,28 +11504,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>16558</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>33115</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>57952</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>33115</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>16558</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4967</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -11591,28 +11602,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>15589</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>31177</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>54560</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>31177</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>15589</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4677</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -11689,28 +11700,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>13954</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>27907</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>48838</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>27907</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>13954</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4186</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1395</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1395</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -11787,28 +11798,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>14776</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>29551</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>51715</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>29551</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>14776</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4433</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -11885,28 +11896,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>14761</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>29522</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>51664</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>29522</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>14761</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4428</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -11983,28 +11994,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>14426</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>28852</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>50491</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>28852</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>14426</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4328</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -12081,28 +12092,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>14137</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>28274</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>49480</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>28274</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>14137</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4241</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -12179,28 +12190,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>14427</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>28853</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>50493</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>28853</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>14427</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4328</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -12277,28 +12288,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>14137</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>28274</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>49479</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>28274</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>14137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4241</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -12375,28 +12386,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>13472</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>26945</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>47153</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>26945</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>13472</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4042</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -12473,28 +12484,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>13502</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>27005</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>47258</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>27005</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>13502</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4051</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -12571,28 +12582,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>12796</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>25591</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>44785</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>25591</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>12796</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3839</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -12669,28 +12680,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>13339</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>26678</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>46686</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>26678</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>13339</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>4002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -12767,28 +12778,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>12974</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25948</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>45409</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>25948</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>12974</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3892</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1297</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1297</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -12865,28 +12876,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>12688</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>25376</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>44407</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>25376</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>12688</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3806</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -12963,28 +12974,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>12864</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>25727</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>45023</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>25727</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>12864</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3859</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1286</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1286</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -13061,28 +13072,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>12202</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>24403</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>42705</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>24403</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>12202</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3660</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -13159,28 +13170,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>12044</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>24087</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>42152</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>24087</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>12044</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3613</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -13257,28 +13268,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>12281</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>24562</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>42983</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>24562</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>12281</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3684</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -13355,28 +13366,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>23944</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>41902</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>23944</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3592</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1197</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1197</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -13453,28 +13464,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>12099</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>24198</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>42347</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>24198</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>12099</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3630</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -13551,28 +13562,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>11075</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>22151</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>38764</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>22151</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>11075</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3323</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -13649,28 +13660,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>10812</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>21623</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>37840</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>21623</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10812</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3243</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -13747,28 +13758,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>10550</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>21099</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>36924</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>21099</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>10550</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3165</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -13845,28 +13856,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>10104</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>20208</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>35365</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>20208</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10104</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>3031</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -13943,28 +13954,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>9864</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>19728</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>34524</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>19728</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>9864</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2959</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -14041,28 +14052,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>9854</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>19708</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>34489</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>19708</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>9854</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2956</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -14139,28 +14150,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>9515</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>19030</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>33303</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>19030</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>9515</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2855</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -14237,28 +14248,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>9743</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>19486</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>34101</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>19486</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>9743</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2923</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -14335,28 +14346,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>9277</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>18553</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>32468</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>18553</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>9277</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2783</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>928</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>928</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -14433,28 +14444,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>9333</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>18666</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>32666</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>18666</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>9333</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -14531,28 +14542,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>8177</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>16353</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>28618</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>16353</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>8177</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2453</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -14629,28 +14640,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>8511</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>17022</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>29789</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>17022</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>8511</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2553</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -14727,28 +14738,28 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7983</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>15966</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>27941</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>15966</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>7983</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2395</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -14825,28 +14836,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>7973</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>15947</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>27907</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>15947</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>7973</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2392</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -14923,28 +14934,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>8183</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>16365</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>28639</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>16365</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>8183</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2455</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -15021,28 +15032,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>7841</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>15682</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>27444</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>15682</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>7841</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -15119,28 +15130,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7768</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>15537</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>27189</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>15537</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>7768</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2330</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -15217,28 +15228,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>7611</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>15222</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>26639</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>15222</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>7611</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>2283</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -15315,28 +15326,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>6966</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>13932</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>24381</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>13932</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>6966</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -15413,28 +15424,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>7214</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>14427</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>25248</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>14427</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>7214</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2164</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -15511,28 +15522,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>6164</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>12328</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>21574</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>12328</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>6164</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1849</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -15609,28 +15620,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>5969</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>11938</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>20891</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>11938</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5969</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1791</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -15707,28 +15718,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>5988</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>11976</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>20958</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>11976</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>5988</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1796</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -15805,28 +15816,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>5806</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>11611</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>20320</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>11611</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>5806</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -15903,28 +15914,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>5895</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>11789</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>20631</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>11789</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5895</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -16001,28 +16012,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>5594</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>11189</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>19580</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>11189</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>5594</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -16099,28 +16110,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>5201</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>10401</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>18202</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10401</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>5201</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -16197,28 +16208,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4966</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>9932</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>17381</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>9932</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4966</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -16295,28 +16306,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4623</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>9246</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16181</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>9246</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>4623</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -16393,28 +16404,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>4865</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>9730</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>17028</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>9730</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>4865</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -16491,28 +16502,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3935</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>7870</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>13773</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>7870</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>3935</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -16589,28 +16600,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>3937</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>7874</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>13780</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>7874</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3937</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -16687,28 +16698,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3938</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>7876</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>13783</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>7876</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3938</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -16785,28 +16796,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3759</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>7518</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>13157</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>7518</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>3759</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -16883,28 +16894,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3976</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>7952</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>13916</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>7952</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>3976</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -16981,28 +16992,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3461</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>6921</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>12112</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>6921</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3461</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -17079,28 +17090,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>3198</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>11193</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3198</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -17177,28 +17188,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3194</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>6387</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>11177</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>6387</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>3194</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -17275,28 +17286,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5746</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>10056</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5746</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -17373,28 +17384,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>6972</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>12201</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>6972</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -17471,28 +17482,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>2171</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>4342</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>7599</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>4342</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2171</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -17569,28 +17580,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2381</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>4762</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>8333</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>4762</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2381</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -17667,28 +17678,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2199</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>4398</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>7697</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>4398</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2199</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -17765,28 +17776,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>4303</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>7531</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>4303</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -17863,28 +17874,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>2239</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>4479</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>7838</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>4479</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2239</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -17961,28 +17972,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>3532</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>6181</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3532</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -18059,28 +18070,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1669</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>5840</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1669</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -18157,28 +18168,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>3248</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>5683</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3248</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -18255,28 +18266,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>2728</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>4774</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2728</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -18353,28 +18364,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1833</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>3665</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>6414</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3665</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1833</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -18451,28 +18462,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2364</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>4137</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2364</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -18549,28 +18560,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2462</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>4309</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2462</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -18647,28 +18658,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1992</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>3485</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1992</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -18745,28 +18756,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>3493</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -18843,28 +18854,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>3438</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -18941,28 +18952,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>2655</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -19039,28 +19050,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>2201</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -19137,28 +19148,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -19235,28 +19246,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1557</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -19333,28 +19344,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1807</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -19431,28 +19442,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -19529,28 +19540,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -19627,28 +19638,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -19725,28 +19736,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -19823,28 +19834,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -19921,28 +19932,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -20019,28 +20030,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -20117,28 +20128,28 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -20215,28 +20226,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -20313,28 +20324,28 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -20416,7 +20427,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20438,7 +20449,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -20446,7 +20457,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -20454,7 +20465,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -20462,7 +20473,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -21251,7 +21262,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21273,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -21281,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -21289,7 +21300,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -21297,7 +21308,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -22085,8 +22096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558351FC-9FCA-4CDD-A3D5-63FE9C2CB36B}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="X101" sqref="X101"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC490FF-F383-4DCC-897D-C877F7F33C7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89AB4F-710D-428D-8316-913E776E87F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inicial_H" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>100+</t>
   </si>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3BDBC-AAC9-49B1-855A-0D97D040112E}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,8 +499,8 @@
       <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AF1" s="1">
-        <v>30</v>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -511,25 +511,25 @@
         <v>13218</v>
       </c>
       <c r="C2">
-        <v>26437</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>46264</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>26437</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13218</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3965</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1322</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1322</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>30435</v>
       </c>
       <c r="D3">
-        <v>53261</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>30435</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15217</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4565</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1522</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1522</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>53264</v>
       </c>
       <c r="E4">
-        <v>30437</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>15218</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4566</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1522</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1522</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -10410,8 +10410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3891B7-828C-4C9D-A5A3-A41D0B8931D1}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20426,8 +20426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB30A8E-EAFD-4DB6-A194-D6447164BAE7}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21261,7 +21261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265E6485-F743-4A15-8A53-86D09FBD23C8}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -22096,8 +22096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558351FC-9FCA-4CDD-A3D5-63FE9C2CB36B}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32111,8 +32111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480506-65EC-4396-9F63-D6C89905E883}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
